--- a/AFM_lemeDNA.xlsx
+++ b/AFM_lemeDNA.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnold\Documents\MATLAB\AFM\lemeDNA testing version\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DB1FD1-5645-4326-8BD4-C492EC6802FE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="50" windowWidth="20120" windowHeight="8000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,13 +16,20 @@
     <sheet name="calibration" sheetId="7" r:id="rId1"/>
     <sheet name="data" sheetId="13" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179021"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Image</t>
   </si>
@@ -72,24 +80,6 @@
   </si>
   <si>
     <t>Molecules selected for calibration</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>g</t>
   </si>
   <si>
     <t>afm.png</t>
@@ -117,11 +107,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +181,21 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -223,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -240,7 +246,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -252,6 +257,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -593,7 +604,7 @@
   <dimension ref="A2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -624,28 +635,28 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="1"/>
@@ -654,33 +665,33 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="17"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="19" t="s">
+      <c r="J5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="21"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="20"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -689,17 +700,17 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="19" t="s">
+      <c r="J6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="21"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
@@ -710,14 +721,14 @@
       <c r="F7" s="6"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="J7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="21"/>
+      <c r="J7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
@@ -728,9 +739,9 @@
       <c r="F8" s="6"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
@@ -742,51 +753,63 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
       <c r="F10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="J10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="G10" s="6"/>
+      <c r="J10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F11" s="6"/>
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
       <c r="F12" s="6"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="5"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F14" s="6"/>
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F16" s="6"/>
@@ -948,10 +971,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A07D095-2CC4-4077-9548-A969818DC954}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F20"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -967,25 +990,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.5">
@@ -1008,28 +1013,28 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="13"/>
       <c r="I4" s="5"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -1040,24 +1045,24 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="8"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -1076,7 +1081,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="15" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="11"/>
@@ -1095,8 +1100,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="6"/>
       <c r="G7" s="1"/>
-      <c r="I7" s="17" t="s">
-        <v>28</v>
+      <c r="I7" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -1123,73 +1128,332 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="6"/>
-      <c r="I10" s="8"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F15" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="6"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="G16" s="6"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G17" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G21" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G19" s="6"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G23" s="6"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G26" s="6"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="25"/>
+    </row>
+    <row r="27" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G29" s="6"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="25"/>
+    </row>
+    <row r="30" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+    </row>
+    <row r="32" spans="7:9" x14ac:dyDescent="0.35">
+      <c r="G32" s="6"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="G42" s="6"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="25"/>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="G45" s="6"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="25"/>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G49" s="6"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G52" s="6"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G55" s="6"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G58" s="6"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+    </row>
+    <row r="61" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G61" s="6"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+    </row>
+    <row r="64" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G64" s="6"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+    </row>
+    <row r="67" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G67" s="6"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+    </row>
+    <row r="70" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G70" s="6"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+    </row>
+    <row r="73" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G73" s="6"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+    </row>
+    <row r="74" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G74" s="6"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+    </row>
+    <row r="77" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="25"/>
+    </row>
+    <row r="80" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G80" s="6"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+    </row>
+    <row r="83" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G83" s="6"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+    </row>
+    <row r="86" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G86" s="6"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+    </row>
+    <row r="89" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G89" s="6"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+    </row>
+    <row r="92" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G92" s="6"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+    </row>
+    <row r="95" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G95" s="6"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
+    </row>
+    <row r="98" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G98" s="6"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
+    </row>
+    <row r="101" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G101" s="6"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+    </row>
+    <row r="104" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G104" s="6"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="25"/>
+    </row>
+    <row r="107" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G107" s="6"/>
+      <c r="H107" s="26"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="25"/>
+    </row>
+    <row r="110" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G110" s="6"/>
+      <c r="H110" s="26"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
+    </row>
+    <row r="113" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G113" s="6"/>
+      <c r="H113" s="26"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="25"/>
+    </row>
+    <row r="116" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G116" s="6"/>
+      <c r="H116" s="26"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="25"/>
+    </row>
+    <row r="119" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G119" s="6"/>
+      <c r="H119" s="26"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="25"/>
+    </row>
+    <row r="122" spans="7:10" x14ac:dyDescent="0.35">
+      <c r="G122" s="6"/>
+      <c r="H122" s="26"/>
+      <c r="I122" s="25"/>
+      <c r="J122" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>